--- a/src/assets/samplefiles/dummyAgents.xlsx
+++ b/src/assets/samplefiles/dummyAgents.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>email</t>
   </si>
@@ -35,22 +35,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>satish.aurange@gmail.com</t>
+    <t>Test Vijay VRM RM</t>
   </si>
   <si>
-    <t>vishgorework@gmail.com</t>
-  </si>
-  <si>
-    <t>Agent Rohini</t>
-  </si>
-  <si>
-    <t>Agent Pradyumna</t>
-  </si>
-  <si>
-    <t>Agent Sarangi</t>
-  </si>
-  <si>
-    <t>rohinisumago@gmail.com</t>
+    <t>vijay.yatakula@icicibank.com</t>
   </si>
 </sst>
 </file>
@@ -379,18 +367,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -405,52 +392,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>7411477414</v>
+        <v>8328274309</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>8522585285</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>9633699636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="five@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="six@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5" display="six@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
